--- a/Keyboard_Layout_ver003.xlsx
+++ b/Keyboard_Layout_ver003.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HDD/Sample_Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\96_Personal_Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9A1EC7-B7CA-6F44-B677-3E0278183B27}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="10060" windowWidth="19300" windowHeight="8420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Layer 0" sheetId="2" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="127">
   <si>
     <t>Space</t>
   </si>
@@ -309,9 +308,6 @@
     <t>LSHIFT</t>
   </si>
   <si>
-    <t>CAPS</t>
-  </si>
-  <si>
     <t>TAB</t>
   </si>
   <si>
@@ -405,17 +401,23 @@
     <t>MACRO(0)</t>
   </si>
   <si>
-    <t>Vincentiusng17892</t>
-  </si>
-  <si>
     <t>STOP</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>MACRO(1)</t>
+  </si>
+  <si>
+    <t>MACRO(2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +643,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -648,9 +653,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -932,19 +934,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BI21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP18" sqref="AP18:AS21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="61" width="2.83203125" customWidth="1"/>
+    <col min="2" max="61" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61">
+    <row r="2" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>70</v>
       </c>
@@ -1023,20 +1025,20 @@
       <c r="AY2" s="13"/>
       <c r="AZ2" s="13"/>
       <c r="BA2" s="13"/>
-      <c r="BB2" s="13" t="s">
-        <v>41</v>
+      <c r="BB2" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="BC2" s="13"/>
       <c r="BD2" s="13"/>
       <c r="BE2" s="13"/>
-      <c r="BF2" s="13" t="s">
-        <v>40</v>
+      <c r="BF2" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="BG2" s="13"/>
       <c r="BH2" s="13"/>
       <c r="BI2" s="13"/>
     </row>
-    <row r="3" spans="2:61">
+    <row r="3" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -1098,7 +1100,7 @@
       <c r="BH3" s="13"/>
       <c r="BI3" s="13"/>
     </row>
-    <row r="4" spans="2:61">
+    <row r="4" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1160,7 +1162,7 @@
       <c r="BH4" s="13"/>
       <c r="BI4" s="13"/>
     </row>
-    <row r="5" spans="2:61">
+    <row r="5" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -1222,7 +1224,7 @@
       <c r="BH5" s="13"/>
       <c r="BI5" s="13"/>
     </row>
-    <row r="6" spans="2:61">
+    <row r="6" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>56</v>
       </c>
@@ -1312,7 +1314,7 @@
       <c r="BH6" s="5"/>
       <c r="BI6" s="6"/>
     </row>
-    <row r="7" spans="2:61">
+    <row r="7" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1374,7 +1376,7 @@
       <c r="BH7" s="8"/>
       <c r="BI7" s="9"/>
     </row>
-    <row r="8" spans="2:61">
+    <row r="8" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1436,7 +1438,7 @@
       <c r="BH8" s="8"/>
       <c r="BI8" s="9"/>
     </row>
-    <row r="9" spans="2:61">
+    <row r="9" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -1498,7 +1500,7 @@
       <c r="BH9" s="11"/>
       <c r="BI9" s="12"/>
     </row>
-    <row r="10" spans="2:61">
+    <row r="10" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1586,7 +1588,7 @@
       <c r="BH10" s="13"/>
       <c r="BI10" s="13"/>
     </row>
-    <row r="11" spans="2:61">
+    <row r="11" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1648,7 +1650,7 @@
       <c r="BH11" s="13"/>
       <c r="BI11" s="13"/>
     </row>
-    <row r="12" spans="2:61">
+    <row r="12" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -1710,7 +1712,7 @@
       <c r="BH12" s="13"/>
       <c r="BI12" s="13"/>
     </row>
-    <row r="13" spans="2:61">
+    <row r="13" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1772,7 +1774,7 @@
       <c r="BH13" s="13"/>
       <c r="BI13" s="13"/>
     </row>
-    <row r="14" spans="2:61" ht="15" customHeight="1">
+    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1862,7 +1864,7 @@
       <c r="BH14" s="13"/>
       <c r="BI14" s="13"/>
     </row>
-    <row r="15" spans="2:61" ht="15" customHeight="1">
+    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1924,7 +1926,7 @@
       <c r="BH15" s="13"/>
       <c r="BI15" s="13"/>
     </row>
-    <row r="16" spans="2:61" ht="15" customHeight="1">
+    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1986,7 +1988,7 @@
       <c r="BH16" s="13"/>
       <c r="BI16" s="13"/>
     </row>
-    <row r="17" spans="2:61" ht="15" customHeight="1">
+    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -2048,7 +2050,7 @@
       <c r="BH17" s="13"/>
       <c r="BI17" s="13"/>
     </row>
-    <row r="18" spans="2:61" ht="15" customHeight="1">
+    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>2</v>
       </c>
@@ -2102,7 +2104,7 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
       <c r="AP18" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
@@ -2132,7 +2134,7 @@
       <c r="BH18" s="5"/>
       <c r="BI18" s="6"/>
     </row>
-    <row r="19" spans="2:61" ht="15" customHeight="1">
+    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2194,7 +2196,7 @@
       <c r="BH19" s="8"/>
       <c r="BI19" s="9"/>
     </row>
-    <row r="20" spans="2:61" ht="15" customHeight="1">
+    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -2256,7 +2258,7 @@
       <c r="BH20" s="8"/>
       <c r="BI20" s="9"/>
     </row>
-    <row r="21" spans="2:61" ht="15" customHeight="1">
+    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -2394,19 +2396,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BF14" sqref="BF14:BI17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="61" width="2.83203125" customWidth="1"/>
+    <col min="2" max="61" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61" ht="15" customHeight="1">
+    <row r="2" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>41</v>
       </c>
@@ -2498,7 +2500,7 @@
       <c r="BH2" s="13"/>
       <c r="BI2" s="13"/>
     </row>
-    <row r="3" spans="2:61" ht="15" customHeight="1">
+    <row r="3" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -2560,7 +2562,7 @@
       <c r="BH3" s="13"/>
       <c r="BI3" s="13"/>
     </row>
-    <row r="4" spans="2:61" ht="15" customHeight="1">
+    <row r="4" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -2622,7 +2624,7 @@
       <c r="BH4" s="13"/>
       <c r="BI4" s="13"/>
     </row>
-    <row r="5" spans="2:61" ht="15" customHeight="1">
+    <row r="5" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -2684,9 +2686,9 @@
       <c r="BH5" s="13"/>
       <c r="BI5" s="13"/>
     </row>
-    <row r="6" spans="2:61">
+    <row r="6" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2758,7 +2760,7 @@
       <c r="BH6" s="5"/>
       <c r="BI6" s="6"/>
     </row>
-    <row r="7" spans="2:61">
+    <row r="7" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -2820,7 +2822,7 @@
       <c r="BH7" s="8"/>
       <c r="BI7" s="9"/>
     </row>
-    <row r="8" spans="2:61">
+    <row r="8" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -2882,7 +2884,7 @@
       <c r="BH8" s="8"/>
       <c r="BI8" s="9"/>
     </row>
-    <row r="9" spans="2:61">
+    <row r="9" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2944,9 +2946,9 @@
       <c r="BH9" s="11"/>
       <c r="BI9" s="12"/>
     </row>
-    <row r="10" spans="2:61" ht="15" customHeight="1">
+    <row r="10" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -3017,7 +3019,7 @@
       <c r="AY10" s="13"/>
       <c r="AZ10" s="13"/>
       <c r="BA10" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BB10" s="13"/>
       <c r="BC10" s="13"/>
@@ -3028,7 +3030,7 @@
       <c r="BH10" s="13"/>
       <c r="BI10" s="13"/>
     </row>
-    <row r="11" spans="2:61" ht="15" customHeight="1">
+    <row r="11" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -3090,7 +3092,7 @@
       <c r="BH11" s="13"/>
       <c r="BI11" s="13"/>
     </row>
-    <row r="12" spans="2:61" ht="15" customHeight="1">
+    <row r="12" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -3152,7 +3154,7 @@
       <c r="BH12" s="13"/>
       <c r="BI12" s="13"/>
     </row>
-    <row r="13" spans="2:61" ht="15" customHeight="1">
+    <row r="13" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -3214,7 +3216,7 @@
       <c r="BH13" s="13"/>
       <c r="BI13" s="13"/>
     </row>
-    <row r="14" spans="2:61" ht="15" customHeight="1">
+    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>91</v>
       </c>
@@ -3277,14 +3279,14 @@
       <c r="BC14" s="5"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="6"/>
-      <c r="BF14" s="18" t="s">
-        <v>119</v>
+      <c r="BF14" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="BG14" s="13"/>
       <c r="BH14" s="13"/>
       <c r="BI14" s="13"/>
     </row>
-    <row r="15" spans="2:61" ht="15" customHeight="1">
+    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -3346,7 +3348,7 @@
       <c r="BH15" s="13"/>
       <c r="BI15" s="13"/>
     </row>
-    <row r="16" spans="2:61" ht="15" customHeight="1">
+    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -3408,7 +3410,7 @@
       <c r="BH16" s="13"/>
       <c r="BI16" s="13"/>
     </row>
-    <row r="17" spans="2:61" ht="15" customHeight="1">
+    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -3470,7 +3472,7 @@
       <c r="BH17" s="13"/>
       <c r="BI17" s="13"/>
     </row>
-    <row r="18" spans="2:61" ht="15" customHeight="1">
+    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>90</v>
       </c>
@@ -3502,7 +3504,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -3519,7 +3521,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
-      <c r="AP18" s="15"/>
+      <c r="AP18" s="16"/>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
       <c r="AS18" s="6"/>
@@ -3548,7 +3550,7 @@
       <c r="BH18" s="5"/>
       <c r="BI18" s="6"/>
     </row>
-    <row r="19" spans="2:61" ht="15" customHeight="1">
+    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -3610,7 +3612,7 @@
       <c r="BH19" s="8"/>
       <c r="BI19" s="9"/>
     </row>
-    <row r="20" spans="2:61" ht="15" customHeight="1">
+    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -3672,7 +3674,7 @@
       <c r="BH20" s="8"/>
       <c r="BI20" s="9"/>
     </row>
-    <row r="21" spans="2:61" ht="15" customHeight="1">
+    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -3736,14 +3738,12 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AT2:AW5"/>
     <mergeCell ref="V2:Y5"/>
     <mergeCell ref="B2:E5"/>
     <mergeCell ref="F2:I5"/>
     <mergeCell ref="J2:M5"/>
     <mergeCell ref="N2:Q5"/>
     <mergeCell ref="R2:U5"/>
-    <mergeCell ref="AZ6:BC9"/>
     <mergeCell ref="AX2:BA5"/>
     <mergeCell ref="BB2:BE5"/>
     <mergeCell ref="BF2:BI5"/>
@@ -3759,7 +3759,7 @@
     <mergeCell ref="AH2:AK5"/>
     <mergeCell ref="AL2:AO5"/>
     <mergeCell ref="AP2:AS5"/>
-    <mergeCell ref="W14:Z17"/>
+    <mergeCell ref="AT2:AW5"/>
     <mergeCell ref="BD6:BI9"/>
     <mergeCell ref="B10:H13"/>
     <mergeCell ref="I10:L13"/>
@@ -3775,11 +3775,7 @@
     <mergeCell ref="AN6:AQ9"/>
     <mergeCell ref="AR6:AU9"/>
     <mergeCell ref="AV6:AY9"/>
-    <mergeCell ref="B14:F17"/>
-    <mergeCell ref="G14:J17"/>
-    <mergeCell ref="K14:N17"/>
-    <mergeCell ref="O14:R17"/>
-    <mergeCell ref="S14:V17"/>
+    <mergeCell ref="AZ6:BC9"/>
     <mergeCell ref="AQ14:AT17"/>
     <mergeCell ref="AU14:AX17"/>
     <mergeCell ref="AX18:BA21"/>
@@ -3791,11 +3787,6 @@
     <mergeCell ref="BF18:BI21"/>
     <mergeCell ref="AY14:BE17"/>
     <mergeCell ref="BF14:BI17"/>
-    <mergeCell ref="B18:F21"/>
-    <mergeCell ref="G18:K21"/>
-    <mergeCell ref="L18:P21"/>
-    <mergeCell ref="Q18:Y21"/>
-    <mergeCell ref="Z18:AD21"/>
     <mergeCell ref="AE18:AO21"/>
     <mergeCell ref="AP18:AS21"/>
     <mergeCell ref="AT18:AW21"/>
@@ -3803,6 +3794,17 @@
     <mergeCell ref="AE14:AH17"/>
     <mergeCell ref="AI14:AL17"/>
     <mergeCell ref="AM14:AP17"/>
+    <mergeCell ref="B18:F21"/>
+    <mergeCell ref="G18:K21"/>
+    <mergeCell ref="L18:P21"/>
+    <mergeCell ref="Q18:Y21"/>
+    <mergeCell ref="Z18:AD21"/>
+    <mergeCell ref="B14:F17"/>
+    <mergeCell ref="G14:J17"/>
+    <mergeCell ref="K14:N17"/>
+    <mergeCell ref="O14:R17"/>
+    <mergeCell ref="S14:V17"/>
+    <mergeCell ref="W14:Z17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3810,21 +3812,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:BJ21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:BI21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY14" sqref="AY14:BE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="61" width="2.83203125" customWidth="1"/>
+    <col min="2" max="61" width="2.85546875" customWidth="1"/>
+    <col min="64" max="64" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62" ht="15" customHeight="1">
-      <c r="B2" s="18" t="s">
-        <v>125</v>
+    <row r="2" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -3858,55 +3861,55 @@
       <c r="AB2" s="13"/>
       <c r="AC2" s="13"/>
       <c r="AD2" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE2" s="13"/>
       <c r="AF2" s="13"/>
       <c r="AG2" s="13"/>
       <c r="AH2" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AM2" s="13"/>
       <c r="AN2" s="13"/>
       <c r="AO2" s="13"/>
       <c r="AP2" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AQ2" s="13"/>
       <c r="AR2" s="13"/>
       <c r="AS2" s="13"/>
       <c r="AT2" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU2" s="13"/>
       <c r="AV2" s="13"/>
       <c r="AW2" s="13"/>
       <c r="AX2" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AY2" s="13"/>
       <c r="AZ2" s="13"/>
       <c r="BA2" s="13"/>
-      <c r="BB2" s="17" t="s">
-        <v>121</v>
+      <c r="BB2" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="BC2" s="13"/>
       <c r="BD2" s="13"/>
       <c r="BE2" s="13"/>
-      <c r="BF2" s="17" t="s">
-        <v>122</v>
+      <c r="BF2" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="BG2" s="13"/>
       <c r="BH2" s="13"/>
       <c r="BI2" s="13"/>
     </row>
-    <row r="3" spans="2:62" ht="15" customHeight="1">
+    <row r="3" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -3968,7 +3971,7 @@
       <c r="BH3" s="13"/>
       <c r="BI3" s="13"/>
     </row>
-    <row r="4" spans="2:62" ht="15" customHeight="1">
+    <row r="4" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -4030,7 +4033,7 @@
       <c r="BH4" s="13"/>
       <c r="BI4" s="13"/>
     </row>
-    <row r="5" spans="2:62" ht="15" customHeight="1">
+    <row r="5" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -4092,8 +4095,10 @@
       <c r="BH5" s="13"/>
       <c r="BI5" s="13"/>
     </row>
-    <row r="6" spans="2:62" ht="15" customHeight="1">
-      <c r="B6" s="13"/>
+    <row r="6" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -4174,7 +4179,7 @@
       <c r="BH6" s="5"/>
       <c r="BI6" s="6"/>
     </row>
-    <row r="7" spans="2:62" ht="15" customHeight="1">
+    <row r="7" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -4236,7 +4241,7 @@
       <c r="BH7" s="8"/>
       <c r="BI7" s="9"/>
     </row>
-    <row r="8" spans="2:62" ht="15" customHeight="1">
+    <row r="8" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -4298,7 +4303,7 @@
       <c r="BH8" s="8"/>
       <c r="BI8" s="9"/>
     </row>
-    <row r="9" spans="2:62" ht="15" customHeight="1">
+    <row r="9" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -4360,8 +4365,10 @@
       <c r="BH9" s="11"/>
       <c r="BI9" s="12"/>
     </row>
-    <row r="10" spans="2:62" ht="15" customHeight="1">
-      <c r="B10" s="13"/>
+    <row r="10" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -4369,55 +4376,55 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
       <c r="AG10" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AL10" s="13"/>
       <c r="AM10" s="13"/>
       <c r="AN10" s="13"/>
       <c r="AO10" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AP10" s="13"/>
       <c r="AQ10" s="13"/>
@@ -4430,8 +4437,8 @@
       <c r="AX10" s="13"/>
       <c r="AY10" s="13"/>
       <c r="AZ10" s="13"/>
-      <c r="BA10" s="17" t="s">
-        <v>123</v>
+      <c r="BA10" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="BB10" s="13"/>
       <c r="BC10" s="13"/>
@@ -4442,7 +4449,7 @@
       <c r="BH10" s="13"/>
       <c r="BI10" s="13"/>
     </row>
-    <row r="11" spans="2:62" ht="15" customHeight="1">
+    <row r="11" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -4503,11 +4510,8 @@
       <c r="BG11" s="13"/>
       <c r="BH11" s="13"/>
       <c r="BI11" s="13"/>
-      <c r="BJ11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="2:62" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -4569,7 +4573,7 @@
       <c r="BH12" s="13"/>
       <c r="BI12" s="13"/>
     </row>
-    <row r="13" spans="2:62" ht="15" customHeight="1">
+    <row r="13" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -4631,7 +4635,7 @@
       <c r="BH13" s="13"/>
       <c r="BI13" s="13"/>
     </row>
-    <row r="14" spans="2:62" ht="15" customHeight="1">
+    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4644,43 +4648,43 @@
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
       <c r="K14" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="6"/>
       <c r="O14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="6"/>
       <c r="S14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="6"/>
       <c r="W14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
@@ -4709,7 +4713,7 @@
       <c r="BH14" s="13"/>
       <c r="BI14" s="13"/>
     </row>
-    <row r="15" spans="2:62" ht="15" customHeight="1">
+    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -4771,7 +4775,7 @@
       <c r="BH15" s="13"/>
       <c r="BI15" s="13"/>
     </row>
-    <row r="16" spans="2:62" ht="15" customHeight="1">
+    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -4833,7 +4837,7 @@
       <c r="BH16" s="13"/>
       <c r="BI16" s="13"/>
     </row>
-    <row r="17" spans="2:61" ht="15" customHeight="1">
+    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -4895,7 +4899,7 @@
       <c r="BH17" s="13"/>
       <c r="BI17" s="13"/>
     </row>
-    <row r="18" spans="2:61" ht="15" customHeight="1">
+    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -4920,8 +4924,8 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="16" t="s">
-        <v>120</v>
+      <c r="Z18" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -4961,7 +4965,7 @@
       <c r="BH18" s="5"/>
       <c r="BI18" s="6"/>
     </row>
-    <row r="19" spans="2:61" ht="15" customHeight="1">
+    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -5023,7 +5027,7 @@
       <c r="BH19" s="8"/>
       <c r="BI19" s="9"/>
     </row>
-    <row r="20" spans="2:61" ht="15" customHeight="1">
+    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -5085,7 +5089,7 @@
       <c r="BH20" s="8"/>
       <c r="BI20" s="9"/>
     </row>
-    <row r="21" spans="2:61" ht="15" customHeight="1">
+    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -5149,14 +5153,12 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AT2:AW5"/>
     <mergeCell ref="V2:Y5"/>
     <mergeCell ref="B2:E5"/>
     <mergeCell ref="F2:I5"/>
     <mergeCell ref="J2:M5"/>
     <mergeCell ref="N2:Q5"/>
     <mergeCell ref="R2:U5"/>
-    <mergeCell ref="AZ6:BC9"/>
     <mergeCell ref="AX2:BA5"/>
     <mergeCell ref="BB2:BE5"/>
     <mergeCell ref="BF2:BI5"/>
@@ -5172,7 +5174,7 @@
     <mergeCell ref="AH2:AK5"/>
     <mergeCell ref="AL2:AO5"/>
     <mergeCell ref="AP2:AS5"/>
-    <mergeCell ref="W14:Z17"/>
+    <mergeCell ref="AT2:AW5"/>
     <mergeCell ref="BD6:BI9"/>
     <mergeCell ref="B10:H13"/>
     <mergeCell ref="I10:L13"/>
@@ -5188,11 +5190,7 @@
     <mergeCell ref="AN6:AQ9"/>
     <mergeCell ref="AR6:AU9"/>
     <mergeCell ref="AV6:AY9"/>
-    <mergeCell ref="B14:F17"/>
-    <mergeCell ref="G14:J17"/>
-    <mergeCell ref="K14:N17"/>
-    <mergeCell ref="O14:R17"/>
-    <mergeCell ref="S14:V17"/>
+    <mergeCell ref="AZ6:BC9"/>
     <mergeCell ref="AQ14:AT17"/>
     <mergeCell ref="AU14:AX17"/>
     <mergeCell ref="AX18:BA21"/>
@@ -5204,11 +5202,6 @@
     <mergeCell ref="BF18:BI21"/>
     <mergeCell ref="AY14:BE17"/>
     <mergeCell ref="BF14:BI17"/>
-    <mergeCell ref="B18:F21"/>
-    <mergeCell ref="G18:K21"/>
-    <mergeCell ref="L18:P21"/>
-    <mergeCell ref="Q18:Y21"/>
-    <mergeCell ref="Z18:AD21"/>
     <mergeCell ref="AE18:AO21"/>
     <mergeCell ref="AP18:AS21"/>
     <mergeCell ref="AT18:AW21"/>
@@ -5216,6 +5209,17 @@
     <mergeCell ref="AE14:AH17"/>
     <mergeCell ref="AI14:AL17"/>
     <mergeCell ref="AM14:AP17"/>
+    <mergeCell ref="B18:F21"/>
+    <mergeCell ref="G18:K21"/>
+    <mergeCell ref="L18:P21"/>
+    <mergeCell ref="Q18:Y21"/>
+    <mergeCell ref="Z18:AD21"/>
+    <mergeCell ref="B14:F17"/>
+    <mergeCell ref="G14:J17"/>
+    <mergeCell ref="K14:N17"/>
+    <mergeCell ref="O14:R17"/>
+    <mergeCell ref="S14:V17"/>
+    <mergeCell ref="W14:Z17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Keyboard_Layout_ver003.xlsx
+++ b/Keyboard_Layout_ver003.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\96_Personal_Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HDD/Sample_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1B89E2-5728-0A45-8BA1-FA3129BF56C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="420" yWindow="1620" windowWidth="15960" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layer 0" sheetId="2" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
   <si>
     <t>Space</t>
   </si>
@@ -230,10 +231,6 @@
   </si>
   <si>
     <t>LT(2, APP)</t>
-  </si>
-  <si>
-    <t>ALGR_T
-(LEFT)</t>
   </si>
   <si>
     <t>GUI_T
@@ -392,9 +389,6 @@
     <t>STOP</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>MACRO(1)</t>
   </si>
   <si>
@@ -402,15 +396,33 @@
   </si>
   <si>
     <t>LT(1, Caps Lock)</t>
+  </si>
+  <si>
+    <t>ALT_T
+(LEFT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -590,57 +602,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,19 +946,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:N17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AT18" sqref="AT18:AW21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="61" width="2.85546875" customWidth="1"/>
+    <col min="2" max="61" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>66</v>
       </c>
@@ -1016,20 +1037,20 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
-      <c r="BB2" s="12" t="s">
+      <c r="BB2" s="13" t="s">
         <v>36</v>
       </c>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
-      <c r="BF2" s="12" t="s">
-        <v>120</v>
+      <c r="BF2" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
     </row>
-    <row r="3" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1091,7 +1112,7 @@
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
     </row>
-    <row r="4" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1153,7 +1174,7 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
     </row>
-    <row r="5" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1215,7 +1236,7 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1296,7 +1317,7 @@
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
-      <c r="BD6" s="3" t="s">
+      <c r="BD6" s="12" t="s">
         <v>23</v>
       </c>
       <c r="BE6" s="4"/>
@@ -1305,7 +1326,7 @@
       <c r="BH6" s="4"/>
       <c r="BI6" s="5"/>
     </row>
-    <row r="7" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1367,7 +1388,7 @@
       <c r="BH7" s="7"/>
       <c r="BI7" s="8"/>
     </row>
-    <row r="8" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1429,7 +1450,7 @@
       <c r="BH8" s="7"/>
       <c r="BI8" s="8"/>
     </row>
-    <row r="9" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1491,9 +1512,9 @@
       <c r="BH9" s="10"/>
       <c r="BI9" s="11"/>
     </row>
-    <row r="10" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>123</v>
+    <row r="10" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1579,7 +1600,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1641,7 +1662,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1703,7 +1724,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1765,9 +1786,9 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>87</v>
+    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1840,7 +1861,7 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4"/>
@@ -1848,14 +1869,14 @@
       <c r="BC14" s="4"/>
       <c r="BD14" s="4"/>
       <c r="BE14" s="5"/>
-      <c r="BF14" s="12" t="s">
-        <v>113</v>
+      <c r="BF14" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1917,7 +1938,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1979,7 +2000,7 @@
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
     </row>
-    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -2041,67 +2062,67 @@
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
     </row>
-    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13" t="s">
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13" t="s">
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="18" t="s">
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="14" t="s">
         <v>67</v>
       </c>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
       <c r="AS18" s="5"/>
-      <c r="AT18" s="18" t="s">
-        <v>68</v>
+      <c r="AT18" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
@@ -2113,19 +2134,19 @@
       <c r="AZ18" s="4"/>
       <c r="BA18" s="5"/>
       <c r="BB18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BC18" s="4"/>
       <c r="BD18" s="4"/>
       <c r="BE18" s="5"/>
       <c r="BF18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BG18" s="4"/>
       <c r="BH18" s="4"/>
       <c r="BI18" s="5"/>
     </row>
-    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2141,31 +2162,31 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
+      <c r="AO19" s="16"/>
       <c r="AP19" s="6"/>
       <c r="AQ19" s="7"/>
       <c r="AR19" s="7"/>
@@ -2187,7 +2208,7 @@
       <c r="BH19" s="7"/>
       <c r="BI19" s="8"/>
     </row>
-    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2203,31 +2224,31 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16"/>
       <c r="AP20" s="6"/>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
@@ -2249,7 +2270,7 @@
       <c r="BH20" s="7"/>
       <c r="BI20" s="8"/>
     </row>
-    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2265,31 +2286,31 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
@@ -2387,19 +2408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BI21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L18" sqref="B18:P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="61" width="2.85546875" customWidth="1"/>
+    <col min="2" max="61" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2479,19 +2500,19 @@
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
       <c r="BB2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
     </row>
-    <row r="3" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2553,7 +2574,7 @@
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
     </row>
-    <row r="4" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2615,7 +2636,7 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
     </row>
-    <row r="5" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2677,9 +2698,9 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2691,7 +2712,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2725,25 +2746,25 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BE6" s="4"/>
       <c r="BF6" s="4"/>
@@ -2751,7 +2772,7 @@
       <c r="BH6" s="4"/>
       <c r="BI6" s="5"/>
     </row>
-    <row r="7" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2813,7 +2834,7 @@
       <c r="BH7" s="7"/>
       <c r="BI7" s="8"/>
     </row>
-    <row r="8" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2875,7 +2896,7 @@
       <c r="BH8" s="7"/>
       <c r="BI8" s="8"/>
     </row>
-    <row r="9" spans="2:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2937,7 +2958,7 @@
       <c r="BH9" s="10"/>
       <c r="BI9" s="11"/>
     </row>
-    <row r="10" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2946,19 +2967,19 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2972,43 +2993,43 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AS10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
@@ -3019,7 +3040,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3081,7 +3102,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3143,7 +3164,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3205,9 +3226,9 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3260,7 +3281,7 @@
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4"/>
@@ -3268,12 +3289,12 @@
       <c r="BC14" s="4"/>
       <c r="BD14" s="4"/>
       <c r="BE14" s="5"/>
-      <c r="BF14" s="12"/>
+      <c r="BF14" s="13"/>
       <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3335,7 +3356,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3397,7 +3418,7 @@
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
     </row>
-    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -3459,63 +3480,63 @@
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
     </row>
-    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="18" t="s">
-        <v>114</v>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
       <c r="AS18" s="5"/>
       <c r="AT18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
@@ -3527,19 +3548,19 @@
       <c r="AZ18" s="4"/>
       <c r="BA18" s="5"/>
       <c r="BB18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BC18" s="4"/>
       <c r="BD18" s="4"/>
       <c r="BE18" s="5"/>
       <c r="BF18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BG18" s="4"/>
       <c r="BH18" s="4"/>
       <c r="BI18" s="5"/>
     </row>
-    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3555,31 +3576,31 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
+      <c r="AO19" s="16"/>
       <c r="AP19" s="6"/>
       <c r="AQ19" s="7"/>
       <c r="AR19" s="7"/>
@@ -3601,7 +3622,7 @@
       <c r="BH19" s="7"/>
       <c r="BI19" s="8"/>
     </row>
-    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3617,31 +3638,31 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16"/>
       <c r="AP20" s="6"/>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
@@ -3663,7 +3684,7 @@
       <c r="BH20" s="7"/>
       <c r="BI20" s="8"/>
     </row>
-    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3679,31 +3700,31 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>
@@ -3801,22 +3822,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:BI21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AY14" sqref="AY14:BE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="61" width="2.85546875" customWidth="1"/>
-    <col min="64" max="64" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="61" width="2.83203125" customWidth="1"/>
+    <col min="64" max="64" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>119</v>
+    <row r="2" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3850,55 +3871,55 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
-      <c r="BB2" s="16" t="s">
-        <v>116</v>
+      <c r="BB2" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
-      <c r="BF2" s="16" t="s">
-        <v>117</v>
+      <c r="BF2" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
     </row>
-    <row r="3" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3960,7 +3981,7 @@
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
     </row>
-    <row r="4" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4022,7 +4043,7 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
     </row>
-    <row r="5" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4084,9 +4105,9 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>118</v>
+    <row r="6" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4168,7 +4189,7 @@
       <c r="BH6" s="4"/>
       <c r="BI6" s="5"/>
     </row>
-    <row r="7" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4230,7 +4251,7 @@
       <c r="BH7" s="7"/>
       <c r="BI7" s="8"/>
     </row>
-    <row r="8" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4292,7 +4313,7 @@
       <c r="BH8" s="7"/>
       <c r="BI8" s="8"/>
     </row>
-    <row r="9" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4354,9 +4375,9 @@
       <c r="BH9" s="10"/>
       <c r="BI9" s="11"/>
     </row>
-    <row r="10" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>121</v>
+    <row r="10" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4365,55 +4386,55 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -4426,8 +4447,8 @@
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
-      <c r="BA10" s="12" t="s">
-        <v>122</v>
+      <c r="BA10" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
@@ -4438,7 +4459,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4500,7 +4521,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4562,7 +4583,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4624,7 +4645,7 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4637,43 +4658,43 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
       <c r="K14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
       <c r="S14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="5"/>
       <c r="W14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
@@ -4702,7 +4723,7 @@
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4764,7 +4785,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4826,7 +4847,7 @@
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
     </row>
-    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -4888,7 +4909,7 @@
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
     </row>
-    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4904,33 +4925,33 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
@@ -4954,7 +4975,7 @@
       <c r="BH18" s="4"/>
       <c r="BI18" s="5"/>
     </row>
-    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4970,31 +4991,31 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
+      <c r="AO19" s="16"/>
       <c r="AP19" s="6"/>
       <c r="AQ19" s="7"/>
       <c r="AR19" s="7"/>
@@ -5016,7 +5037,7 @@
       <c r="BH19" s="7"/>
       <c r="BI19" s="8"/>
     </row>
-    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5032,31 +5053,31 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16"/>
       <c r="AP20" s="6"/>
       <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
@@ -5078,7 +5099,7 @@
       <c r="BH20" s="7"/>
       <c r="BI20" s="8"/>
     </row>
-    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5094,31 +5115,31 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
       <c r="AP21" s="9"/>
       <c r="AQ21" s="10"/>
       <c r="AR21" s="10"/>

--- a/Keyboard_Layout_ver003.xlsx
+++ b/Keyboard_Layout_ver003.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HDD/Sample_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1B89E2-5728-0A45-8BA1-FA3129BF56C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB6D11F-93EA-D04D-A161-CE78A501034C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1620" windowWidth="15960" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20240" yWindow="1520" windowWidth="15960" windowHeight="17340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layer 0" sheetId="2" r:id="rId1"/>
     <sheet name="Layer 1" sheetId="10" r:id="rId2"/>
     <sheet name="Layer 2" sheetId="11" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="127">
   <si>
     <t>Space</t>
   </si>
@@ -296,9 +296,6 @@
     <t>TAB</t>
   </si>
   <si>
-    <t>SPACE</t>
-  </si>
-  <si>
     <t>PENT</t>
   </si>
   <si>
@@ -400,13 +397,28 @@
   <si>
     <t>ALT_T
 (LEFT)</t>
+  </si>
+  <si>
+    <t>RALT</t>
+  </si>
+  <si>
+    <t>RGUI</t>
+  </si>
+  <si>
+    <t>RCTRL</t>
+  </si>
+  <si>
+    <t>RSHIFT</t>
+  </si>
+  <si>
+    <t>Caps Lock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -665,6 +677,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -949,16 +964,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AT18" sqref="AT18:AW21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="61" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:61">
       <c r="B2" s="1" t="s">
         <v>66</v>
       </c>
@@ -1050,7 +1065,7 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
     </row>
-    <row r="3" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:61">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1112,7 +1127,7 @@
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
     </row>
-    <row r="4" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:61">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1174,7 +1189,7 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
     </row>
-    <row r="5" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:61">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1236,7 +1251,7 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:61">
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1326,7 +1341,7 @@
       <c r="BH6" s="4"/>
       <c r="BI6" s="5"/>
     </row>
-    <row r="7" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:61">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1388,7 +1403,7 @@
       <c r="BH7" s="7"/>
       <c r="BI7" s="8"/>
     </row>
-    <row r="8" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:61">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1450,7 +1465,7 @@
       <c r="BH8" s="7"/>
       <c r="BI8" s="8"/>
     </row>
-    <row r="9" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:61">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1512,9 +1527,9 @@
       <c r="BH9" s="10"/>
       <c r="BI9" s="11"/>
     </row>
-    <row r="10" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
-        <v>121</v>
+    <row r="10" spans="2:61">
+      <c r="B10" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1600,7 +1615,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:61">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1662,7 +1677,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:61">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1724,7 +1739,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:61">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1786,7 +1801,7 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:61" ht="15" customHeight="1">
       <c r="B14" s="14" t="s">
         <v>86</v>
       </c>
@@ -1870,13 +1885,13 @@
       <c r="BD14" s="4"/>
       <c r="BE14" s="5"/>
       <c r="BF14" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:61" ht="15" customHeight="1">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1938,7 +1953,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:61" ht="15" customHeight="1">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2000,7 +2015,7 @@
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
     </row>
-    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:61" ht="15" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -2062,7 +2077,7 @@
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
     </row>
-    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:61" ht="15" customHeight="1">
       <c r="B18" s="1" t="s">
         <v>85</v>
       </c>
@@ -2122,7 +2137,7 @@
       <c r="AR18" s="4"/>
       <c r="AS18" s="5"/>
       <c r="AT18" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
@@ -2146,7 +2161,7 @@
       <c r="BH18" s="4"/>
       <c r="BI18" s="5"/>
     </row>
-    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:61" ht="15" customHeight="1">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2208,7 +2223,7 @@
       <c r="BH19" s="7"/>
       <c r="BI19" s="8"/>
     </row>
-    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:61" ht="15" customHeight="1">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2270,7 +2285,7 @@
       <c r="BH20" s="7"/>
       <c r="BI20" s="8"/>
     </row>
-    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:61" ht="15" customHeight="1">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2412,15 +2427,15 @@
   <dimension ref="B2:BI21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L18" sqref="B18:P21"/>
+      <selection activeCell="Z18" sqref="Z18:AD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="61" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:61" ht="15" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2512,7 +2527,7 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
     </row>
-    <row r="3" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:61" ht="15" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2574,7 +2589,7 @@
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
     </row>
-    <row r="4" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:61" ht="15" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2636,7 +2651,7 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
     </row>
-    <row r="5" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:61" ht="15" customHeight="1">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2698,7 +2713,7 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:61">
       <c r="B6" s="1" t="s">
         <v>87</v>
       </c>
@@ -2772,7 +2787,7 @@
       <c r="BH6" s="4"/>
       <c r="BI6" s="5"/>
     </row>
-    <row r="7" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:61">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2834,7 +2849,7 @@
       <c r="BH7" s="7"/>
       <c r="BI7" s="8"/>
     </row>
-    <row r="8" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:61">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2896,7 +2911,7 @@
       <c r="BH8" s="7"/>
       <c r="BI8" s="8"/>
     </row>
-    <row r="9" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:61">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2958,7 +2973,7 @@
       <c r="BH9" s="10"/>
       <c r="BI9" s="11"/>
     </row>
-    <row r="10" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:61" ht="15" customHeight="1">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3029,7 +3044,7 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
@@ -3040,7 +3055,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:61" ht="15" customHeight="1">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3102,7 +3117,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:61" ht="15" customHeight="1">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3164,7 +3179,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:61" ht="15" customHeight="1">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3226,9 +3241,9 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>86</v>
+    <row r="14" spans="2:61" ht="15" customHeight="1">
+      <c r="B14" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -3294,7 +3309,7 @@
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:61" ht="15" customHeight="1">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3356,7 +3371,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:61" ht="15" customHeight="1">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3418,7 +3433,7 @@
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
     </row>
-    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:61" ht="15" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -3480,23 +3495,23 @@
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
     </row>
-    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>85</v>
+    <row r="18" spans="2:61" ht="15" customHeight="1">
+      <c r="B18" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>84</v>
+      <c r="G18" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
-        <v>83</v>
+      <c r="L18" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -3511,8 +3526,8 @@
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
-      <c r="Z18" s="15" t="s">
-        <v>88</v>
+      <c r="Z18" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
@@ -3530,7 +3545,7 @@
       <c r="AN18" s="15"/>
       <c r="AO18" s="15"/>
       <c r="AP18" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
@@ -3560,7 +3575,7 @@
       <c r="BH18" s="4"/>
       <c r="BI18" s="5"/>
     </row>
-    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:61" ht="15" customHeight="1">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3622,7 +3637,7 @@
       <c r="BH19" s="7"/>
       <c r="BI19" s="8"/>
     </row>
-    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:61" ht="15" customHeight="1">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3684,7 +3699,7 @@
       <c r="BH20" s="7"/>
       <c r="BI20" s="8"/>
     </row>
-    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:61" ht="15" customHeight="1">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3825,19 +3840,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:BI21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AY14" sqref="AY14:BE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="61" width="2.83203125" customWidth="1"/>
     <col min="64" max="64" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:61" ht="15" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3871,55 +3886,55 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
       <c r="BB2" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
     </row>
-    <row r="3" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:61" ht="15" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3981,7 +3996,7 @@
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
     </row>
-    <row r="4" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:61" ht="15" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4043,7 +4058,7 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
     </row>
-    <row r="5" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:61" ht="15" customHeight="1">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4105,9 +4120,9 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:61" ht="15" customHeight="1">
       <c r="B6" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4189,7 +4204,7 @@
       <c r="BH6" s="4"/>
       <c r="BI6" s="5"/>
     </row>
-    <row r="7" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:61" ht="15" customHeight="1">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4251,7 +4266,7 @@
       <c r="BH7" s="7"/>
       <c r="BI7" s="8"/>
     </row>
-    <row r="8" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:61" ht="15" customHeight="1">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4313,7 +4328,7 @@
       <c r="BH8" s="7"/>
       <c r="BI8" s="8"/>
     </row>
-    <row r="9" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:61" ht="15" customHeight="1">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4375,9 +4390,9 @@
       <c r="BH9" s="10"/>
       <c r="BI9" s="11"/>
     </row>
-    <row r="10" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:61" ht="15" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4386,55 +4401,55 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -4448,7 +4463,7 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
@@ -4459,7 +4474,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:61" ht="15" customHeight="1">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4521,7 +4536,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:61" ht="15" customHeight="1">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4583,7 +4598,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:61" ht="15" customHeight="1">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4645,7 +4660,7 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:61" ht="15" customHeight="1">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4658,43 +4673,43 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
       <c r="K14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
       <c r="S14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="5"/>
       <c r="W14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
@@ -4723,7 +4738,7 @@
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:61" ht="15" customHeight="1">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4785,7 +4800,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:61" ht="15" customHeight="1">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4847,7 +4862,7 @@
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
     </row>
-    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:61" ht="15" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -4909,7 +4924,7 @@
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
     </row>
-    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:61" ht="15" customHeight="1">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4935,7 +4950,7 @@
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
@@ -4975,7 +4990,7 @@
       <c r="BH18" s="4"/>
       <c r="BI18" s="5"/>
     </row>
-    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:61" ht="15" customHeight="1">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5037,7 +5052,7 @@
       <c r="BH19" s="7"/>
       <c r="BI19" s="8"/>
     </row>
-    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:61" ht="15" customHeight="1">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5099,7 +5114,7 @@
       <c r="BH20" s="7"/>
       <c r="BI20" s="8"/>
     </row>
-    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:61" ht="15" customHeight="1">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>

--- a/Keyboard_Layout_ver003.xlsx
+++ b/Keyboard_Layout_ver003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HDD/Sample_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4496BB9D-A9EC-EE42-992D-7DE56AC2B7F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B33A54D-8127-724A-BF48-D6D13402E516}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20960" yWindow="1660" windowWidth="23780" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19780" yWindow="1560" windowWidth="23780" windowHeight="17340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layer 0" sheetId="2" r:id="rId1"/>
@@ -418,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -727,6 +727,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1011,16 +1014,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="61" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:61">
       <c r="B2" s="1" t="s">
         <v>66</v>
       </c>
@@ -1112,7 +1115,7 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
     </row>
-    <row r="3" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:61">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1174,7 +1177,7 @@
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
     </row>
-    <row r="4" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:61">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1236,7 +1239,7 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
     </row>
-    <row r="5" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:61">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1298,7 +1301,7 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:61">
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1388,7 +1391,7 @@
       <c r="BH6" s="13"/>
       <c r="BI6" s="14"/>
     </row>
-    <row r="7" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:61">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1450,7 +1453,7 @@
       <c r="BH7" s="16"/>
       <c r="BI7" s="17"/>
     </row>
-    <row r="8" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:61">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1512,7 +1515,7 @@
       <c r="BH8" s="16"/>
       <c r="BI8" s="17"/>
     </row>
-    <row r="9" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:61">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1574,7 +1577,7 @@
       <c r="BH9" s="19"/>
       <c r="BI9" s="20"/>
     </row>
-    <row r="10" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:61">
       <c r="B10" s="23" t="s">
         <v>117</v>
       </c>
@@ -1662,7 +1665,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:61">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1724,7 +1727,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:61">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1786,7 +1789,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:61">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1848,7 +1851,7 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:61" ht="15" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>83</v>
       </c>
@@ -1938,7 +1941,7 @@
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:61" ht="15" customHeight="1">
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -2000,7 +2003,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:61" ht="15" customHeight="1">
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -2062,7 +2065,7 @@
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
     </row>
-    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:61" ht="15" customHeight="1">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -2124,7 +2127,7 @@
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
     </row>
-    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:61" ht="15" customHeight="1">
       <c r="B18" s="1" t="s">
         <v>82</v>
       </c>
@@ -2208,7 +2211,7 @@
       <c r="BH18" s="4"/>
       <c r="BI18" s="5"/>
     </row>
-    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:61" ht="15" customHeight="1">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2270,7 +2273,7 @@
       <c r="BH19" s="7"/>
       <c r="BI19" s="8"/>
     </row>
-    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:61" ht="15" customHeight="1">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2332,7 +2335,7 @@
       <c r="BH20" s="7"/>
       <c r="BI20" s="8"/>
     </row>
-    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:61" ht="15" customHeight="1">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2394,10 +2397,10 @@
       <c r="BH21" s="10"/>
       <c r="BI21" s="11"/>
     </row>
-    <row r="26" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:61" ht="15" customHeight="1"/>
+    <row r="27" spans="2:61" ht="15" customHeight="1"/>
+    <row r="28" spans="2:61" ht="15" customHeight="1"/>
+    <row r="29" spans="2:61" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="67">
     <mergeCell ref="Q18:Y21"/>
@@ -2477,16 +2480,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:BI21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ45" sqref="AJ45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="61" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:61" ht="15" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
@@ -2578,7 +2581,7 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
     </row>
-    <row r="3" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:61" ht="15" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2640,7 +2643,7 @@
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
     </row>
-    <row r="4" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:61" ht="15" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2702,7 +2705,7 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
     </row>
-    <row r="5" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:61" ht="15" customHeight="1">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2764,7 +2767,7 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:61" ht="15" customHeight="1">
       <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
@@ -2842,7 +2845,7 @@
       <c r="BH6" s="13"/>
       <c r="BI6" s="14"/>
     </row>
-    <row r="7" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:61" ht="15" customHeight="1">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2904,7 +2907,7 @@
       <c r="BH7" s="16"/>
       <c r="BI7" s="17"/>
     </row>
-    <row r="8" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:61" ht="15" customHeight="1">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2966,7 +2969,7 @@
       <c r="BH8" s="16"/>
       <c r="BI8" s="17"/>
     </row>
-    <row r="9" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:61" ht="15" customHeight="1">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3028,7 +3031,7 @@
       <c r="BH9" s="19"/>
       <c r="BI9" s="20"/>
     </row>
-    <row r="10" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:61" ht="15" customHeight="1">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3110,7 +3113,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:61" ht="15" customHeight="1">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3172,7 +3175,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:61" ht="15" customHeight="1">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3234,7 +3237,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:61" ht="15" customHeight="1">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3296,7 +3299,7 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:61" ht="15" customHeight="1">
       <c r="B14" s="30" t="s">
         <v>121</v>
       </c>
@@ -3314,7 +3317,9 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -3364,7 +3369,7 @@
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:61" ht="15" customHeight="1">
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -3426,7 +3431,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:61" ht="15" customHeight="1">
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -3488,7 +3493,7 @@
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
     </row>
-    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:61" ht="15" customHeight="1">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -3550,7 +3555,7 @@
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
     </row>
-    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:61" ht="15" customHeight="1">
       <c r="B18" s="23" t="s">
         <v>120</v>
       </c>
@@ -3599,9 +3604,7 @@
       <c r="AM18" s="25"/>
       <c r="AN18" s="25"/>
       <c r="AO18" s="25"/>
-      <c r="AP18" s="24" t="s">
-        <v>109</v>
-      </c>
+      <c r="AP18" s="24"/>
       <c r="AQ18" s="13"/>
       <c r="AR18" s="13"/>
       <c r="AS18" s="14"/>
@@ -3630,7 +3633,7 @@
       <c r="BH18" s="13"/>
       <c r="BI18" s="14"/>
     </row>
-    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:61" ht="15" customHeight="1">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3692,7 +3695,7 @@
       <c r="BH19" s="16"/>
       <c r="BI19" s="17"/>
     </row>
-    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:61" ht="15" customHeight="1">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3754,7 +3757,7 @@
       <c r="BH20" s="16"/>
       <c r="BI20" s="17"/>
     </row>
-    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:61" ht="15" customHeight="1">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3899,13 +3902,13 @@
       <selection activeCell="BB31" sqref="BB31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="61" width="2.83203125" customWidth="1"/>
     <col min="64" max="64" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:61" ht="15" customHeight="1">
       <c r="B2" s="21" t="s">
         <v>114</v>
       </c>
@@ -3985,7 +3988,7 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
     </row>
-    <row r="3" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:61" ht="15" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4047,7 +4050,7 @@
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
     </row>
-    <row r="4" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:61" ht="15" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4109,7 +4112,7 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
     </row>
-    <row r="5" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:61" ht="15" customHeight="1">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4171,7 +4174,7 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:61" ht="15" customHeight="1">
       <c r="B6" s="21" t="s">
         <v>113</v>
       </c>
@@ -4259,7 +4262,7 @@
       <c r="BH6" s="13"/>
       <c r="BI6" s="14"/>
     </row>
-    <row r="7" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:61" ht="15" customHeight="1">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4321,7 +4324,7 @@
       <c r="BH7" s="16"/>
       <c r="BI7" s="17"/>
     </row>
-    <row r="8" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:61" ht="15" customHeight="1">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4383,7 +4386,7 @@
       <c r="BH8" s="16"/>
       <c r="BI8" s="17"/>
     </row>
-    <row r="9" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:61" ht="15" customHeight="1">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4445,7 +4448,7 @@
       <c r="BH9" s="19"/>
       <c r="BI9" s="20"/>
     </row>
-    <row r="10" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:61" ht="15" customHeight="1">
       <c r="B10" s="21" t="s">
         <v>115</v>
       </c>
@@ -4529,7 +4532,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:61" ht="15" customHeight="1">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -4591,7 +4594,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:61" ht="15" customHeight="1">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4653,7 +4656,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:61" ht="15" customHeight="1">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4715,7 +4718,7 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:61" ht="15" customHeight="1">
       <c r="B14" s="22"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -4793,7 +4796,7 @@
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:61" ht="15" customHeight="1">
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -4855,7 +4858,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:61" ht="15" customHeight="1">
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -4917,7 +4920,7 @@
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
     </row>
-    <row r="17" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:61" ht="15" customHeight="1">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -4979,7 +4982,7 @@
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
     </row>
-    <row r="18" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:61" ht="15" customHeight="1">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5045,7 +5048,7 @@
       <c r="BH18" s="13"/>
       <c r="BI18" s="14"/>
     </row>
-    <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:61" ht="15" customHeight="1">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5107,7 +5110,7 @@
       <c r="BH19" s="16"/>
       <c r="BI19" s="17"/>
     </row>
-    <row r="20" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:61" ht="15" customHeight="1">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5169,7 +5172,7 @@
       <c r="BH20" s="16"/>
       <c r="BI20" s="17"/>
     </row>
-    <row r="21" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:61" ht="15" customHeight="1">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
